--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,51 +73,48 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -124,34 +124,40 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>share</t>
   </si>
   <si>
     <t>online</t>
@@ -527,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +541,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,16 +623,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,16 +723,16 @@
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3430232558139535</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C6">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>339</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3355704697986577</v>
+        <v>0.3449612403100775</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>99</v>
+        <v>338</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3246753246753247</v>
+        <v>0.3355704697986577</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8448275862068966</v>
+        <v>0.8125</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3174603174603174</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.828125</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1706349206349206</v>
+        <v>0.2751322751322751</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,31 +970,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L10">
+        <v>95</v>
+      </c>
+      <c r="M10">
+        <v>95</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8170731707317073</v>
-      </c>
-      <c r="L10">
-        <v>67</v>
-      </c>
-      <c r="M10">
-        <v>67</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -996,13 +1002,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.08847184986595175</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1014,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>340</v>
+        <v>207</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.7872340425531915</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,21 +1044,45 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.0938337801608579</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>338</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.7746478873239436</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L12">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="M12">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1064,21 +1094,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.7666666666666667</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L13">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="M13">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1090,21 +1120,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7647058823529411</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1116,21 +1146,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.746031746031746</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1142,21 +1172,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7264150943396226</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1168,21 +1198,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.6944444444444444</v>
+        <v>0.71875</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1194,21 +1224,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6875</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L18">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1220,21 +1250,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.6702127659574468</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1246,21 +1276,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.625</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1272,21 +1302,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.5900783289817232</v>
+        <v>0.6266318537859008</v>
       </c>
       <c r="L21">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="M21">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1298,21 +1328,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1324,21 +1354,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.5588235294117647</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L23">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="M23">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1350,21 +1380,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.5280898876404494</v>
+        <v>0.5323529411764706</v>
       </c>
       <c r="L24">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="M24">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1376,21 +1406,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>42</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.5186440677966102</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="L25">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M25">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1402,21 +1432,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.4728033472803347</v>
+        <v>0.4769874476987448</v>
       </c>
       <c r="L26">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M26">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1428,21 +1458,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.4520547945205479</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1454,21 +1484,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.421875</v>
+        <v>0.453125</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1480,21 +1510,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.3846153846153846</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1506,21 +1536,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.3846153846153846</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1532,21 +1562,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.09569377990430622</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L31">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1558,21 +1588,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>378</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.08413461538461539</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1584,21 +1614,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.06487695749440715</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L33">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1610,21 +1640,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>836</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.04994450610432852</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L34">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="M34">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1636,59 +1666,85 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>856</v>
+        <v>833</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.02618045815801777</v>
+        <v>0.04439511653718091</v>
       </c>
       <c r="L35">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N35">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>2083</v>
+        <v>861</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.01352657004830918</v>
+        <v>0.02241943017281644</v>
       </c>
       <c r="L36">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M36">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="N36">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O36">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>3063</v>
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37">
+        <v>0.01128304319793682</v>
+      </c>
+      <c r="L37">
+        <v>35</v>
+      </c>
+      <c r="M37">
+        <v>40</v>
+      </c>
+      <c r="N37">
+        <v>0.88</v>
+      </c>
+      <c r="O37">
+        <v>0.12</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3067</v>
       </c>
     </row>
   </sheetData>
